--- a/Doc/2.UI/銀行ダウンロード/ファイル仕様書.xlsx
+++ b/Doc/2.UI/銀行ダウンロード/ファイル仕様書.xlsx
@@ -2,14 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaimuVB\Desktop\銀行ダウンロード\UI\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル一覧" sheetId="6" r:id="rId1"/>
@@ -750,6 +745,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -758,39 +786,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1152,170 +1147,170 @@
       </c>
     </row>
     <row r="3" spans="1:75">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="35" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="35" t="s">
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="35" t="s">
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="36"/>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="36"/>
-      <c r="BC3" s="36"/>
-      <c r="BD3" s="36"/>
-      <c r="BE3" s="36"/>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="36"/>
-      <c r="BK3" s="36"/>
-      <c r="BL3" s="36"/>
-      <c r="BM3" s="36"/>
-      <c r="BN3" s="36"/>
-      <c r="BO3" s="36"/>
-      <c r="BP3" s="36"/>
-      <c r="BQ3" s="36"/>
-      <c r="BR3" s="36"/>
-      <c r="BS3" s="36"/>
-      <c r="BT3" s="36"/>
-      <c r="BU3" s="36"/>
-      <c r="BV3" s="36"/>
-      <c r="BW3" s="37"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="33"/>
+      <c r="AQ3" s="33"/>
+      <c r="AR3" s="33"/>
+      <c r="AS3" s="33"/>
+      <c r="AT3" s="33"/>
+      <c r="AU3" s="33"/>
+      <c r="AV3" s="33"/>
+      <c r="AW3" s="33"/>
+      <c r="AX3" s="33"/>
+      <c r="AY3" s="33"/>
+      <c r="AZ3" s="33"/>
+      <c r="BA3" s="33"/>
+      <c r="BB3" s="33"/>
+      <c r="BC3" s="33"/>
+      <c r="BD3" s="33"/>
+      <c r="BE3" s="33"/>
+      <c r="BF3" s="33"/>
+      <c r="BG3" s="33"/>
+      <c r="BH3" s="33"/>
+      <c r="BI3" s="33"/>
+      <c r="BJ3" s="33"/>
+      <c r="BK3" s="33"/>
+      <c r="BL3" s="33"/>
+      <c r="BM3" s="33"/>
+      <c r="BN3" s="33"/>
+      <c r="BO3" s="33"/>
+      <c r="BP3" s="33"/>
+      <c r="BQ3" s="33"/>
+      <c r="BR3" s="33"/>
+      <c r="BS3" s="33"/>
+      <c r="BT3" s="33"/>
+      <c r="BU3" s="33"/>
+      <c r="BV3" s="33"/>
+      <c r="BW3" s="34"/>
     </row>
     <row r="4" spans="1:75">
-      <c r="B4" s="31"/>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="32" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39"/>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39"/>
-      <c r="BE4" s="39"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="39"/>
-      <c r="BH4" s="39"/>
-      <c r="BI4" s="39"/>
-      <c r="BJ4" s="39"/>
-      <c r="BK4" s="39"/>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="39"/>
-      <c r="BN4" s="39"/>
-      <c r="BO4" s="39"/>
-      <c r="BP4" s="39"/>
-      <c r="BQ4" s="39"/>
-      <c r="BR4" s="39"/>
-      <c r="BS4" s="39"/>
-      <c r="BT4" s="39"/>
-      <c r="BU4" s="39"/>
-      <c r="BV4" s="39"/>
-      <c r="BW4" s="40"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="36"/>
+      <c r="AZ4" s="36"/>
+      <c r="BA4" s="36"/>
+      <c r="BB4" s="36"/>
+      <c r="BC4" s="36"/>
+      <c r="BD4" s="36"/>
+      <c r="BE4" s="36"/>
+      <c r="BF4" s="36"/>
+      <c r="BG4" s="36"/>
+      <c r="BH4" s="36"/>
+      <c r="BI4" s="36"/>
+      <c r="BJ4" s="36"/>
+      <c r="BK4" s="36"/>
+      <c r="BL4" s="36"/>
+      <c r="BM4" s="36"/>
+      <c r="BN4" s="36"/>
+      <c r="BO4" s="36"/>
+      <c r="BP4" s="36"/>
+      <c r="BQ4" s="36"/>
+      <c r="BR4" s="36"/>
+      <c r="BS4" s="36"/>
+      <c r="BT4" s="36"/>
+      <c r="BU4" s="36"/>
+      <c r="BV4" s="36"/>
+      <c r="BW4" s="37"/>
     </row>
     <row r="5" spans="1:75">
       <c r="B5" s="25">
@@ -1350,21 +1345,21 @@
       <c r="X5" s="18"/>
       <c r="Y5" s="18"/>
       <c r="Z5" s="20"/>
-      <c r="AA5" s="27" t="s">
+      <c r="AA5" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="29"/>
-      <c r="AF5" s="27" t="s">
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="29"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="40"/>
       <c r="AL5" s="21"/>
       <c r="AM5" s="18"/>
       <c r="AN5" s="18"/>
@@ -1433,17 +1428,17 @@
       <c r="X6" s="18"/>
       <c r="Y6" s="18"/>
       <c r="Z6" s="20"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="29"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="40"/>
       <c r="AL6" s="21"/>
       <c r="AM6" s="18"/>
       <c r="AN6" s="18"/>
@@ -1512,17 +1507,17 @@
       <c r="X7" s="18"/>
       <c r="Y7" s="18"/>
       <c r="Z7" s="20"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
-      <c r="AK7" s="29"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="40"/>
       <c r="AL7" s="21"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="18"/>
@@ -1591,17 +1586,17 @@
       <c r="X8" s="18"/>
       <c r="Y8" s="18"/>
       <c r="Z8" s="20"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="29"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="39"/>
+      <c r="AK8" s="40"/>
       <c r="AL8" s="21"/>
       <c r="AM8" s="18"/>
       <c r="AN8" s="18"/>
@@ -1670,17 +1665,17 @@
       <c r="X9" s="18"/>
       <c r="Y9" s="18"/>
       <c r="Z9" s="20"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
-      <c r="AD9" s="28"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="28"/>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="29"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="40"/>
       <c r="AL9" s="21"/>
       <c r="AM9" s="18"/>
       <c r="AN9" s="18"/>
@@ -1749,17 +1744,17 @@
       <c r="X10" s="18"/>
       <c r="Y10" s="18"/>
       <c r="Z10" s="20"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="28"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="28"/>
-      <c r="AK10" s="29"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="40"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="40"/>
       <c r="AL10" s="21"/>
       <c r="AM10" s="18"/>
       <c r="AN10" s="18"/>
@@ -1828,17 +1823,17 @@
       <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
       <c r="Z11" s="20"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
-      <c r="AK11" s="29"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="39"/>
+      <c r="AK11" s="40"/>
       <c r="AL11" s="21"/>
       <c r="AM11" s="18"/>
       <c r="AN11" s="18"/>
@@ -1907,17 +1902,17 @@
       <c r="X12" s="18"/>
       <c r="Y12" s="18"/>
       <c r="Z12" s="20"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="29"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="39"/>
+      <c r="AK12" s="40"/>
       <c r="AL12" s="21"/>
       <c r="AM12" s="18"/>
       <c r="AN12" s="18"/>
@@ -1986,17 +1981,17 @@
       <c r="X13" s="18"/>
       <c r="Y13" s="18"/>
       <c r="Z13" s="20"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="28"/>
-      <c r="AK13" s="29"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="39"/>
+      <c r="AK13" s="40"/>
       <c r="AL13" s="21"/>
       <c r="AM13" s="18"/>
       <c r="AN13" s="18"/>
@@ -2065,17 +2060,17 @@
       <c r="X14" s="18"/>
       <c r="Y14" s="18"/>
       <c r="Z14" s="20"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="29"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="39"/>
+      <c r="AK14" s="40"/>
       <c r="AL14" s="21"/>
       <c r="AM14" s="18"/>
       <c r="AN14" s="18"/>
@@ -2144,17 +2139,17 @@
       <c r="X15" s="18"/>
       <c r="Y15" s="18"/>
       <c r="Z15" s="20"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
-      <c r="AK15" s="29"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="39"/>
+      <c r="AK15" s="40"/>
       <c r="AL15" s="21"/>
       <c r="AM15" s="18"/>
       <c r="AN15" s="18"/>
@@ -2223,17 +2218,17 @@
       <c r="X16" s="18"/>
       <c r="Y16" s="18"/>
       <c r="Z16" s="20"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="29"/>
+      <c r="AA16" s="38"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="39"/>
+      <c r="AJ16" s="39"/>
+      <c r="AK16" s="40"/>
       <c r="AL16" s="21"/>
       <c r="AM16" s="18"/>
       <c r="AN16" s="18"/>
@@ -2302,17 +2297,17 @@
       <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
       <c r="Z17" s="20"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
-      <c r="AK17" s="29"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="39"/>
+      <c r="AK17" s="40"/>
       <c r="AL17" s="21"/>
       <c r="AM17" s="18"/>
       <c r="AN17" s="18"/>
@@ -2381,17 +2376,17 @@
       <c r="X18" s="18"/>
       <c r="Y18" s="18"/>
       <c r="Z18" s="20"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="29"/>
+      <c r="AA18" s="38"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="40"/>
       <c r="AL18" s="21"/>
       <c r="AM18" s="18"/>
       <c r="AN18" s="18"/>
@@ -2460,17 +2455,17 @@
       <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
       <c r="Z19" s="20"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="28"/>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="28"/>
-      <c r="AH19" s="28"/>
-      <c r="AI19" s="28"/>
-      <c r="AJ19" s="28"/>
-      <c r="AK19" s="29"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="39"/>
+      <c r="AI19" s="39"/>
+      <c r="AJ19" s="39"/>
+      <c r="AK19" s="40"/>
       <c r="AL19" s="21"/>
       <c r="AM19" s="18"/>
       <c r="AN19" s="18"/>
@@ -2539,17 +2534,17 @@
       <c r="X20" s="18"/>
       <c r="Y20" s="18"/>
       <c r="Z20" s="20"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
-      <c r="AK20" s="29"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="39"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="40"/>
       <c r="AL20" s="21"/>
       <c r="AM20" s="18"/>
       <c r="AN20" s="18"/>
@@ -2618,17 +2613,17 @@
       <c r="X21" s="18"/>
       <c r="Y21" s="18"/>
       <c r="Z21" s="20"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="28"/>
-      <c r="AK21" s="29"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="40"/>
       <c r="AL21" s="21"/>
       <c r="AM21" s="18"/>
       <c r="AN21" s="18"/>
@@ -2697,17 +2692,17 @@
       <c r="X22" s="18"/>
       <c r="Y22" s="18"/>
       <c r="Z22" s="20"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="28"/>
-      <c r="AJ22" s="28"/>
-      <c r="AK22" s="29"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="39"/>
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="40"/>
       <c r="AL22" s="21"/>
       <c r="AM22" s="18"/>
       <c r="AN22" s="18"/>
@@ -2776,17 +2771,17 @@
       <c r="X23" s="18"/>
       <c r="Y23" s="18"/>
       <c r="Z23" s="20"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="29"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="39"/>
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="39"/>
+      <c r="AJ23" s="39"/>
+      <c r="AK23" s="40"/>
       <c r="AL23" s="21"/>
       <c r="AM23" s="18"/>
       <c r="AN23" s="18"/>
@@ -2855,17 +2850,17 @@
       <c r="X24" s="18"/>
       <c r="Y24" s="18"/>
       <c r="Z24" s="20"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="29"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="40"/>
       <c r="AL24" s="21"/>
       <c r="AM24" s="18"/>
       <c r="AN24" s="18"/>
@@ -2934,17 +2929,17 @@
       <c r="X25" s="18"/>
       <c r="Y25" s="18"/>
       <c r="Z25" s="20"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
-      <c r="AK25" s="29"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="39"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="39"/>
+      <c r="AK25" s="40"/>
       <c r="AL25" s="21"/>
       <c r="AM25" s="18"/>
       <c r="AN25" s="18"/>
@@ -3013,17 +3008,17 @@
       <c r="X26" s="18"/>
       <c r="Y26" s="18"/>
       <c r="Z26" s="20"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28"/>
-      <c r="AD26" s="28"/>
-      <c r="AE26" s="29"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="28"/>
-      <c r="AH26" s="28"/>
-      <c r="AI26" s="28"/>
-      <c r="AJ26" s="28"/>
-      <c r="AK26" s="29"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="38"/>
+      <c r="AG26" s="39"/>
+      <c r="AH26" s="39"/>
+      <c r="AI26" s="39"/>
+      <c r="AJ26" s="39"/>
+      <c r="AK26" s="40"/>
       <c r="AL26" s="21"/>
       <c r="AM26" s="18"/>
       <c r="AN26" s="18"/>
@@ -3092,17 +3087,17 @@
       <c r="X27" s="18"/>
       <c r="Y27" s="18"/>
       <c r="Z27" s="20"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="27"/>
-      <c r="AG27" s="28"/>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="28"/>
-      <c r="AJ27" s="28"/>
-      <c r="AK27" s="29"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="40"/>
+      <c r="AF27" s="38"/>
+      <c r="AG27" s="39"/>
+      <c r="AH27" s="39"/>
+      <c r="AI27" s="39"/>
+      <c r="AJ27" s="39"/>
+      <c r="AK27" s="40"/>
       <c r="AL27" s="21"/>
       <c r="AM27" s="18"/>
       <c r="AN27" s="18"/>
@@ -3171,17 +3166,17 @@
       <c r="X28" s="18"/>
       <c r="Y28" s="18"/>
       <c r="Z28" s="20"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="28"/>
-      <c r="AH28" s="28"/>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="28"/>
-      <c r="AK28" s="29"/>
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="38"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="39"/>
+      <c r="AI28" s="39"/>
+      <c r="AJ28" s="39"/>
+      <c r="AK28" s="40"/>
       <c r="AL28" s="21"/>
       <c r="AM28" s="18"/>
       <c r="AN28" s="18"/>
@@ -3250,17 +3245,17 @@
       <c r="X29" s="18"/>
       <c r="Y29" s="18"/>
       <c r="Z29" s="20"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="27"/>
-      <c r="AG29" s="28"/>
-      <c r="AH29" s="28"/>
-      <c r="AI29" s="28"/>
-      <c r="AJ29" s="28"/>
-      <c r="AK29" s="29"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+      <c r="AD29" s="39"/>
+      <c r="AE29" s="40"/>
+      <c r="AF29" s="38"/>
+      <c r="AG29" s="39"/>
+      <c r="AH29" s="39"/>
+      <c r="AI29" s="39"/>
+      <c r="AJ29" s="39"/>
+      <c r="AK29" s="40"/>
       <c r="AL29" s="21"/>
       <c r="AM29" s="18"/>
       <c r="AN29" s="18"/>
@@ -3329,17 +3324,17 @@
       <c r="X30" s="18"/>
       <c r="Y30" s="18"/>
       <c r="Z30" s="20"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="29"/>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="28"/>
-      <c r="AH30" s="28"/>
-      <c r="AI30" s="28"/>
-      <c r="AJ30" s="28"/>
-      <c r="AK30" s="29"/>
+      <c r="AA30" s="38"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="40"/>
+      <c r="AF30" s="38"/>
+      <c r="AG30" s="39"/>
+      <c r="AH30" s="39"/>
+      <c r="AI30" s="39"/>
+      <c r="AJ30" s="39"/>
+      <c r="AK30" s="40"/>
       <c r="AL30" s="21"/>
       <c r="AM30" s="18"/>
       <c r="AN30" s="18"/>
@@ -3408,17 +3403,17 @@
       <c r="X31" s="18"/>
       <c r="Y31" s="18"/>
       <c r="Z31" s="20"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28"/>
-      <c r="AE31" s="29"/>
-      <c r="AF31" s="27"/>
-      <c r="AG31" s="28"/>
-      <c r="AH31" s="28"/>
-      <c r="AI31" s="28"/>
-      <c r="AJ31" s="28"/>
-      <c r="AK31" s="29"/>
+      <c r="AA31" s="38"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="40"/>
+      <c r="AF31" s="38"/>
+      <c r="AG31" s="39"/>
+      <c r="AH31" s="39"/>
+      <c r="AI31" s="39"/>
+      <c r="AJ31" s="39"/>
+      <c r="AK31" s="40"/>
       <c r="AL31" s="21"/>
       <c r="AM31" s="18"/>
       <c r="AN31" s="18"/>
@@ -3487,17 +3482,17 @@
       <c r="X32" s="18"/>
       <c r="Y32" s="18"/>
       <c r="Z32" s="20"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="29"/>
-      <c r="AF32" s="27"/>
-      <c r="AG32" s="28"/>
-      <c r="AH32" s="28"/>
-      <c r="AI32" s="28"/>
-      <c r="AJ32" s="28"/>
-      <c r="AK32" s="29"/>
+      <c r="AA32" s="38"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="40"/>
+      <c r="AF32" s="38"/>
+      <c r="AG32" s="39"/>
+      <c r="AH32" s="39"/>
+      <c r="AI32" s="39"/>
+      <c r="AJ32" s="39"/>
+      <c r="AK32" s="40"/>
       <c r="AL32" s="21"/>
       <c r="AM32" s="18"/>
       <c r="AN32" s="18"/>
@@ -3566,17 +3561,17 @@
       <c r="X33" s="18"/>
       <c r="Y33" s="18"/>
       <c r="Z33" s="20"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="29"/>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="28"/>
-      <c r="AH33" s="28"/>
-      <c r="AI33" s="28"/>
-      <c r="AJ33" s="28"/>
-      <c r="AK33" s="29"/>
+      <c r="AA33" s="38"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="40"/>
+      <c r="AF33" s="38"/>
+      <c r="AG33" s="39"/>
+      <c r="AH33" s="39"/>
+      <c r="AI33" s="39"/>
+      <c r="AJ33" s="39"/>
+      <c r="AK33" s="40"/>
       <c r="AL33" s="21"/>
       <c r="AM33" s="18"/>
       <c r="AN33" s="18"/>
@@ -3645,17 +3640,17 @@
       <c r="X34" s="18"/>
       <c r="Y34" s="18"/>
       <c r="Z34" s="20"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28"/>
-      <c r="AE34" s="29"/>
-      <c r="AF34" s="27"/>
-      <c r="AG34" s="28"/>
-      <c r="AH34" s="28"/>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="28"/>
-      <c r="AK34" s="29"/>
+      <c r="AA34" s="38"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="40"/>
+      <c r="AF34" s="38"/>
+      <c r="AG34" s="39"/>
+      <c r="AH34" s="39"/>
+      <c r="AI34" s="39"/>
+      <c r="AJ34" s="39"/>
+      <c r="AK34" s="40"/>
       <c r="AL34" s="21"/>
       <c r="AM34" s="18"/>
       <c r="AN34" s="18"/>
@@ -3724,17 +3719,17 @@
       <c r="X35" s="18"/>
       <c r="Y35" s="18"/>
       <c r="Z35" s="20"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="29"/>
-      <c r="AF35" s="27"/>
-      <c r="AG35" s="28"/>
-      <c r="AH35" s="28"/>
-      <c r="AI35" s="28"/>
-      <c r="AJ35" s="28"/>
-      <c r="AK35" s="29"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="40"/>
+      <c r="AF35" s="38"/>
+      <c r="AG35" s="39"/>
+      <c r="AH35" s="39"/>
+      <c r="AI35" s="39"/>
+      <c r="AJ35" s="39"/>
+      <c r="AK35" s="40"/>
       <c r="AL35" s="21"/>
       <c r="AM35" s="18"/>
       <c r="AN35" s="18"/>
@@ -3803,17 +3798,17 @@
       <c r="X36" s="18"/>
       <c r="Y36" s="18"/>
       <c r="Z36" s="20"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
-      <c r="AE36" s="29"/>
-      <c r="AF36" s="27"/>
-      <c r="AG36" s="28"/>
-      <c r="AH36" s="28"/>
-      <c r="AI36" s="28"/>
-      <c r="AJ36" s="28"/>
-      <c r="AK36" s="29"/>
+      <c r="AA36" s="38"/>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="39"/>
+      <c r="AD36" s="39"/>
+      <c r="AE36" s="40"/>
+      <c r="AF36" s="38"/>
+      <c r="AG36" s="39"/>
+      <c r="AH36" s="39"/>
+      <c r="AI36" s="39"/>
+      <c r="AJ36" s="39"/>
+      <c r="AK36" s="40"/>
       <c r="AL36" s="21"/>
       <c r="AM36" s="18"/>
       <c r="AN36" s="18"/>
@@ -3882,17 +3877,17 @@
       <c r="X37" s="18"/>
       <c r="Y37" s="18"/>
       <c r="Z37" s="20"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="28"/>
-      <c r="AC37" s="28"/>
-      <c r="AD37" s="28"/>
-      <c r="AE37" s="29"/>
-      <c r="AF37" s="27"/>
-      <c r="AG37" s="28"/>
-      <c r="AH37" s="28"/>
-      <c r="AI37" s="28"/>
-      <c r="AJ37" s="28"/>
-      <c r="AK37" s="29"/>
+      <c r="AA37" s="38"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="39"/>
+      <c r="AD37" s="39"/>
+      <c r="AE37" s="40"/>
+      <c r="AF37" s="38"/>
+      <c r="AG37" s="39"/>
+      <c r="AH37" s="39"/>
+      <c r="AI37" s="39"/>
+      <c r="AJ37" s="39"/>
+      <c r="AK37" s="40"/>
       <c r="AL37" s="21"/>
       <c r="AM37" s="18"/>
       <c r="AN37" s="18"/>
@@ -3961,17 +3956,17 @@
       <c r="X38" s="18"/>
       <c r="Y38" s="18"/>
       <c r="Z38" s="20"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="28"/>
-      <c r="AC38" s="28"/>
-      <c r="AD38" s="28"/>
-      <c r="AE38" s="29"/>
-      <c r="AF38" s="27"/>
-      <c r="AG38" s="28"/>
-      <c r="AH38" s="28"/>
-      <c r="AI38" s="28"/>
-      <c r="AJ38" s="28"/>
-      <c r="AK38" s="29"/>
+      <c r="AA38" s="38"/>
+      <c r="AB38" s="39"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="39"/>
+      <c r="AE38" s="40"/>
+      <c r="AF38" s="38"/>
+      <c r="AG38" s="39"/>
+      <c r="AH38" s="39"/>
+      <c r="AI38" s="39"/>
+      <c r="AJ38" s="39"/>
+      <c r="AK38" s="40"/>
       <c r="AL38" s="21"/>
       <c r="AM38" s="18"/>
       <c r="AN38" s="18"/>
@@ -4013,73 +4008,6 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:Z3"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="O4:Z4"/>
-    <mergeCell ref="AL3:BW4"/>
-    <mergeCell ref="AA3:AE4"/>
-    <mergeCell ref="AF3:AK4"/>
-    <mergeCell ref="AA5:AE5"/>
-    <mergeCell ref="AF5:AK5"/>
-    <mergeCell ref="AA6:AE6"/>
-    <mergeCell ref="AF6:AK6"/>
-    <mergeCell ref="AA7:AE7"/>
-    <mergeCell ref="AF7:AK7"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AF8:AK8"/>
-    <mergeCell ref="AA9:AE9"/>
-    <mergeCell ref="AF9:AK9"/>
-    <mergeCell ref="AA10:AE10"/>
-    <mergeCell ref="AF10:AK10"/>
-    <mergeCell ref="AA11:AE11"/>
-    <mergeCell ref="AF11:AK11"/>
-    <mergeCell ref="AA12:AE12"/>
-    <mergeCell ref="AF12:AK12"/>
-    <mergeCell ref="AA13:AE13"/>
-    <mergeCell ref="AF13:AK13"/>
-    <mergeCell ref="AA14:AE14"/>
-    <mergeCell ref="AF14:AK14"/>
-    <mergeCell ref="AA15:AE15"/>
-    <mergeCell ref="AF15:AK15"/>
-    <mergeCell ref="AA16:AE16"/>
-    <mergeCell ref="AF16:AK16"/>
-    <mergeCell ref="AA17:AE17"/>
-    <mergeCell ref="AF17:AK17"/>
-    <mergeCell ref="AA18:AE18"/>
-    <mergeCell ref="AF18:AK18"/>
-    <mergeCell ref="AA19:AE19"/>
-    <mergeCell ref="AF19:AK19"/>
-    <mergeCell ref="AA20:AE20"/>
-    <mergeCell ref="AF20:AK20"/>
-    <mergeCell ref="AA21:AE21"/>
-    <mergeCell ref="AF21:AK21"/>
-    <mergeCell ref="AA22:AE22"/>
-    <mergeCell ref="AF22:AK22"/>
-    <mergeCell ref="AA23:AE23"/>
-    <mergeCell ref="AF23:AK23"/>
-    <mergeCell ref="AA24:AE24"/>
-    <mergeCell ref="AF24:AK24"/>
-    <mergeCell ref="AA25:AE25"/>
-    <mergeCell ref="AF25:AK25"/>
-    <mergeCell ref="AA26:AE26"/>
-    <mergeCell ref="AF26:AK26"/>
-    <mergeCell ref="AA27:AE27"/>
-    <mergeCell ref="AF27:AK27"/>
-    <mergeCell ref="AA28:AE28"/>
-    <mergeCell ref="AF28:AK28"/>
-    <mergeCell ref="AA29:AE29"/>
-    <mergeCell ref="AF29:AK29"/>
-    <mergeCell ref="AA30:AE30"/>
-    <mergeCell ref="AF30:AK30"/>
-    <mergeCell ref="AA31:AE31"/>
-    <mergeCell ref="AF31:AK31"/>
-    <mergeCell ref="AA32:AE32"/>
-    <mergeCell ref="AF32:AK32"/>
-    <mergeCell ref="AA33:AE33"/>
-    <mergeCell ref="AF33:AK33"/>
-    <mergeCell ref="AA34:AE34"/>
-    <mergeCell ref="AF34:AK34"/>
     <mergeCell ref="AA38:AE38"/>
     <mergeCell ref="AF38:AK38"/>
     <mergeCell ref="AA35:AE35"/>
@@ -4088,6 +4016,73 @@
     <mergeCell ref="AF36:AK36"/>
     <mergeCell ref="AA37:AE37"/>
     <mergeCell ref="AF37:AK37"/>
+    <mergeCell ref="AA32:AE32"/>
+    <mergeCell ref="AF32:AK32"/>
+    <mergeCell ref="AA33:AE33"/>
+    <mergeCell ref="AF33:AK33"/>
+    <mergeCell ref="AA34:AE34"/>
+    <mergeCell ref="AF34:AK34"/>
+    <mergeCell ref="AA29:AE29"/>
+    <mergeCell ref="AF29:AK29"/>
+    <mergeCell ref="AA30:AE30"/>
+    <mergeCell ref="AF30:AK30"/>
+    <mergeCell ref="AA31:AE31"/>
+    <mergeCell ref="AF31:AK31"/>
+    <mergeCell ref="AA26:AE26"/>
+    <mergeCell ref="AF26:AK26"/>
+    <mergeCell ref="AA27:AE27"/>
+    <mergeCell ref="AF27:AK27"/>
+    <mergeCell ref="AA28:AE28"/>
+    <mergeCell ref="AF28:AK28"/>
+    <mergeCell ref="AA23:AE23"/>
+    <mergeCell ref="AF23:AK23"/>
+    <mergeCell ref="AA24:AE24"/>
+    <mergeCell ref="AF24:AK24"/>
+    <mergeCell ref="AA25:AE25"/>
+    <mergeCell ref="AF25:AK25"/>
+    <mergeCell ref="AA20:AE20"/>
+    <mergeCell ref="AF20:AK20"/>
+    <mergeCell ref="AA21:AE21"/>
+    <mergeCell ref="AF21:AK21"/>
+    <mergeCell ref="AA22:AE22"/>
+    <mergeCell ref="AF22:AK22"/>
+    <mergeCell ref="AA17:AE17"/>
+    <mergeCell ref="AF17:AK17"/>
+    <mergeCell ref="AA18:AE18"/>
+    <mergeCell ref="AF18:AK18"/>
+    <mergeCell ref="AA19:AE19"/>
+    <mergeCell ref="AF19:AK19"/>
+    <mergeCell ref="AA14:AE14"/>
+    <mergeCell ref="AF14:AK14"/>
+    <mergeCell ref="AA15:AE15"/>
+    <mergeCell ref="AF15:AK15"/>
+    <mergeCell ref="AA16:AE16"/>
+    <mergeCell ref="AF16:AK16"/>
+    <mergeCell ref="AA11:AE11"/>
+    <mergeCell ref="AF11:AK11"/>
+    <mergeCell ref="AA12:AE12"/>
+    <mergeCell ref="AF12:AK12"/>
+    <mergeCell ref="AA13:AE13"/>
+    <mergeCell ref="AF13:AK13"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AK8"/>
+    <mergeCell ref="AA9:AE9"/>
+    <mergeCell ref="AF9:AK9"/>
+    <mergeCell ref="AA10:AE10"/>
+    <mergeCell ref="AF10:AK10"/>
+    <mergeCell ref="AA5:AE5"/>
+    <mergeCell ref="AF5:AK5"/>
+    <mergeCell ref="AA6:AE6"/>
+    <mergeCell ref="AF6:AK6"/>
+    <mergeCell ref="AA7:AE7"/>
+    <mergeCell ref="AF7:AK7"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:Z3"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="AL3:BW4"/>
+    <mergeCell ref="AA3:AE4"/>
+    <mergeCell ref="AF3:AK4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -4318,5 +4313,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>